--- a/Graph and Dp/DP_begginer.xlsx
+++ b/Graph and Dp/DP_begginer.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB4C99-CD09-4E2F-A004-EB833D49B759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
@@ -87,9 +88,6 @@
     <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/palindrome-partitioning/solutions/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
   </si>
   <si>
@@ -162,9 +160,6 @@
     <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>Backtracking  [r]</t>
   </si>
   <si>
@@ -240,20 +235,41 @@
     <t>https://leetcode.com/problems/number-of-dice-rolls-with-target-sum/</t>
   </si>
   <si>
-    <t>r*</t>
-  </si>
-  <si>
-    <t>bottom  up apporach(r*)</t>
-  </si>
-  <si>
-    <t>3D DP® r</t>
+    <t>r**</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/description/</t>
+  </si>
+  <si>
+    <t>need to find total sum.then,we need to find subtree sum for every node.Then (total -sub)*sub and find the maximum result</t>
+  </si>
+  <si>
+    <t>need to track remainder and index</t>
+  </si>
+  <si>
+    <t>have to track index and bit</t>
+  </si>
+  <si>
+    <t>have to track index and state</t>
+  </si>
+  <si>
+    <t>need to track target and index</t>
+  </si>
+  <si>
+    <t>r***</t>
+  </si>
+  <si>
+    <t>3D DP® r***</t>
+  </si>
+  <si>
+    <t>bottom  up apporach(r***)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,14 +307,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial Black"/>
@@ -310,15 +318,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -357,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,14 +372,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,6 +387,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,9 +471,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,17 +715,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="97.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="2" max="2" width="66.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.5">
@@ -698,14 +740,9 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -713,70 +750,45 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -784,19 +796,14 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -808,170 +815,145 @@
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.5">
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.5">
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.5">
-      <c r="B28" s="9" t="s">
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17" x14ac:dyDescent="0.5">
+      <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
@@ -979,411 +961,426 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B36" s="11" t="s">
-        <v>27</v>
+      <c r="B36" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="13" t="s">
-        <v>24</v>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="17" x14ac:dyDescent="0.5">
+      <c r="B46" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.5">
+      <c r="B49" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B46" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B49" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="2:4" ht="17" x14ac:dyDescent="0.5">
+      <c r="B54" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B54" s="9" t="s">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="10" t="s">
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="3" t="s">
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="13" t="s">
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="13" t="s">
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="C61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B63" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="17" x14ac:dyDescent="0.5">
+      <c r="B63" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="13" t="s">
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="13" t="s">
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="17" x14ac:dyDescent="0.5">
+      <c r="B68" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B68" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B77" s="9" t="s">
-        <v>62</v>
+      <c r="B77" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="17" x14ac:dyDescent="0.5">
+      <c r="B81" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B81" s="9" t="s">
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="3" t="s">
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="17" x14ac:dyDescent="0.5">
+      <c r="B86" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="17" x14ac:dyDescent="0.5">
-      <c r="B86" s="9" t="s">
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C88" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="3" t="s">
+      <c r="C92" t="s">
         <v>72</v>
       </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B92" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" t="s">
-        <v>48</v>
+      <c r="D92" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B22" r:id="rId11"/>
-    <hyperlink ref="B23" r:id="rId12"/>
-    <hyperlink ref="B24" r:id="rId13"/>
-    <hyperlink ref="B25" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B13" r:id="rId16"/>
-    <hyperlink ref="B30" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B32" r:id="rId19"/>
-    <hyperlink ref="B33" r:id="rId20"/>
-    <hyperlink ref="B29" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B40" r:id="rId25"/>
-    <hyperlink ref="B41" r:id="rId26"/>
-    <hyperlink ref="B43" r:id="rId27"/>
-    <hyperlink ref="B17" r:id="rId28"/>
-    <hyperlink ref="B18" r:id="rId29"/>
-    <hyperlink ref="B47" r:id="rId30"/>
-    <hyperlink ref="B50" r:id="rId31"/>
-    <hyperlink ref="B51" r:id="rId32"/>
-    <hyperlink ref="B52" r:id="rId33"/>
-    <hyperlink ref="B56" r:id="rId34"/>
-    <hyperlink ref="B57" r:id="rId35"/>
-    <hyperlink ref="B58" r:id="rId36"/>
-    <hyperlink ref="B59" r:id="rId37"/>
-    <hyperlink ref="B60" r:id="rId38"/>
-    <hyperlink ref="B61" r:id="rId39"/>
-    <hyperlink ref="C30" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B64" r:id="rId42"/>
-    <hyperlink ref="B65" r:id="rId43"/>
-    <hyperlink ref="B66" r:id="rId44"/>
-    <hyperlink ref="B69" r:id="rId45"/>
-    <hyperlink ref="B70" r:id="rId46"/>
-    <hyperlink ref="B71" r:id="rId47"/>
-    <hyperlink ref="B72" r:id="rId48"/>
-    <hyperlink ref="B73" r:id="rId49"/>
-    <hyperlink ref="B74" r:id="rId50"/>
-    <hyperlink ref="B78" r:id="rId51"/>
-    <hyperlink ref="B79" r:id="rId52"/>
-    <hyperlink ref="B82" r:id="rId53"/>
-    <hyperlink ref="B83" r:id="rId54"/>
-    <hyperlink ref="B87" r:id="rId55"/>
-    <hyperlink ref="B88" r:id="rId56"/>
-    <hyperlink ref="B89" r:id="rId57"/>
-    <hyperlink ref="B90" r:id="rId58"/>
-    <hyperlink ref="B91" r:id="rId59"/>
-    <hyperlink ref="B92" r:id="rId60"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B50" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B51" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B52" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B60" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C30" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B64" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B65" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B66" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B69" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B70" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B71" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B72" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B73" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B74" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B78" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B79" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B82" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B83" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B87" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B88" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B89" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B90" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B91" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B92" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1395,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
